--- a/sparc_me/resources/templates/version_1_2_3/element_descriptions.xlsx
+++ b/sparc_me/resources/templates/version_1_2_3/element_descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clin864\breast_group\metadata-manager\metadata_manager\resources\templates\version_1_2_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clin864\Desktop\sparc-codathon\sparc-me\sparc_me\resources\templates\version_1_2_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0162F7A-ACDF-4AD3-A340-408749ED6EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD65C0B-F8F3-48AB-AE40-D4BAFB769A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_description" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
   <si>
     <t>subject_id</t>
   </si>
@@ -366,9 +366,6 @@
     <t>1.2.3</t>
   </si>
   <si>
-    <t>Optional</t>
-  </si>
-  <si>
     <t>sample_id</t>
   </si>
   <si>
@@ -451,6 +448,18 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -782,645 +791,780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF15833-15E3-4C5F-A498-645F4E950DA0}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="str">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="str">
         <f>HYPERLINK("https://orcid.org/","ORCID ID. If you don't have an ORCID, we suggest you sign up for one.")</f>
         <v>ORCID ID. If you don't have an ORCID, we suggest you sign up for one.</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
         <v>73</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
         <v>76</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
         <v>90</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
         <v>98</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
         <v>100</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
         <v>108</v>
       </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{A50359D1-7B9E-4473-8558-8C381AAEC3B0}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{82CFA0A0-D4F0-49D0-9C87-214BD505B2D4}"/>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{A50359D1-7B9E-4473-8558-8C381AAEC3B0}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{82CFA0A0-D4F0-49D0-9C87-214BD505B2D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94F0A20-E7B3-4D8E-AFE6-0B7E0317ACF6}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>115</v>
       </c>
-      <c r="D4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>118</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>119</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>123</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="B9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" xr:uid="{538116BF-51C0-412F-A62B-FF9678A9225E}"/>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{538116BF-51C0-412F-A62B-FF9678A9225E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1428,280 +1572,339 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" xr:uid="{38A68A06-8559-484B-98CF-0DBC2A587D60}"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{38A68A06-8559-484B-98CF-0DBC2A587D60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1709,65 +1912,78 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1071E-6A8B-4F58-AAB3-90A284CB5C0C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="157" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="4" max="4" width="157" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
         <v>136</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
         <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/sparc_me/resources/templates/version_1_2_3/element_descriptions.xlsx
+++ b/sparc_me/resources/templates/version_1_2_3/element_descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clin864\Desktop\sparc-codathon\sparc-me\sparc_me\resources\templates\version_1_2_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD65C0B-F8F3-48AB-AE40-D4BAFB769A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA2248C-9961-4590-93E3-957061D03D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,12 +504,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -794,7 +795,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,20 +1075,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0</v>
       </c>
     </row>

--- a/sparc_me/resources/templates/version_1_2_3/element_descriptions.xlsx
+++ b/sparc_me/resources/templates/version_1_2_3/element_descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clin864\Desktop\sparc-codathon\sparc-me\sparc_me\resources\templates\version_1_2_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA2248C-9961-4590-93E3-957061D03D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6326BB46-7305-40C6-9C6D-E563F01AD22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17688" yWindow="4452" windowWidth="10644" windowHeight="10476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_description" sheetId="4" r:id="rId1"/>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF15833-15E3-4C5F-A498-645F4E950DA0}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +964,7 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>139</v>
@@ -998,7 +998,7 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>139</v>
@@ -1029,7 +1029,7 @@
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>139</v>
@@ -1046,7 +1046,7 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
         <v>139</v>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94F0A20-E7B3-4D8E-AFE6-0B7E0317ACF6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1575,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/sparc_me/resources/templates/version_1_2_3/element_descriptions.xlsx
+++ b/sparc_me/resources/templates/version_1_2_3/element_descriptions.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clin864\Desktop\sparc-codathon\sparc-me\sparc_me\resources\templates\version_1_2_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clin864\OneDrive - The University of Auckland\Desktop\sparc-codathon\sparc-me\sparc_me\resources\templates\version_1_2_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6326BB46-7305-40C6-9C6D-E563F01AD22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E6C456-51BD-484F-A1ED-7217118EF470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17688" yWindow="4452" windowWidth="10644" windowHeight="10476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_description" sheetId="4" r:id="rId1"/>
     <sheet name="samples" sheetId="2" r:id="rId2"/>
     <sheet name="subjects" sheetId="1" r:id="rId3"/>
-    <sheet name="submission" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
   <si>
     <t>subject_id</t>
   </si>
@@ -426,28 +425,7 @@
     <t>https://www.protocols.io/view/corcheapaper-based-microfluidic-device-vtwe6pe</t>
   </si>
   <si>
-    <t>SPARC Award number</t>
-  </si>
-  <si>
-    <t>Grant number supporting the milestone</t>
-  </si>
-  <si>
-    <t>Milestone achieved</t>
-  </si>
-  <si>
-    <t>From milestones supplied to NIH</t>
-  </si>
-  <si>
-    <t>Milestone completion date</t>
-  </si>
-  <si>
-    <t>Date of milestone completion. This date starts the countdown for submission (30 days after completion), length of embargo and publication date (12 months from completion of milestone)</t>
-  </si>
-  <si>
     <t>Element</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Y</t>
@@ -807,7 +785,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -827,10 +805,10 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -844,10 +822,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
         <v>59</v>
@@ -861,10 +839,10 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
@@ -878,10 +856,10 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
@@ -895,10 +873,10 @@
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D6" t="str">
         <f>HYPERLINK("https://orcid.org/","ORCID ID. If you don't have an ORCID, we suggest you sign up for one.")</f>
@@ -913,10 +891,10 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
@@ -930,10 +908,10 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
@@ -947,10 +925,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
@@ -964,10 +942,10 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
         <v>79</v>
@@ -981,10 +959,10 @@
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
         <v>82</v>
@@ -998,10 +976,10 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
@@ -1015,10 +993,10 @@
         <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -1029,10 +1007,10 @@
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
         <v>90</v>
@@ -1046,10 +1024,10 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
         <v>93</v>
@@ -1063,10 +1041,10 @@
         <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
@@ -1080,10 +1058,10 @@
         <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>98</v>
@@ -1097,10 +1075,10 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
         <v>100</v>
@@ -1114,10 +1092,10 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
         <v>103</v>
@@ -1131,10 +1109,10 @@
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -1145,10 +1123,10 @@
         <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
         <v>108</v>
@@ -1183,7 +1161,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -1203,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>111</v>
@@ -1220,10 +1198,10 @@
         <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
@@ -1237,10 +1215,10 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
         <v>114</v>
@@ -1254,10 +1232,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
         <v>116</v>
@@ -1271,10 +1249,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
         <v>117</v>
@@ -1288,10 +1266,10 @@
         <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
         <v>120</v>
@@ -1305,10 +1283,10 @@
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
         <v>122</v>
@@ -1322,10 +1300,10 @@
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1333,10 +1311,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1350,10 +1328,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -1367,10 +1345,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1384,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
         <v>125</v>
@@ -1401,10 +1379,10 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -1418,10 +1396,10 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -1435,10 +1413,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -1452,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1469,10 +1447,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
         <v>126</v>
@@ -1486,10 +1464,10 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -1503,10 +1481,10 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1520,10 +1498,10 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
         <v>49</v>
@@ -1537,10 +1515,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
@@ -1554,10 +1532,10 @@
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -1576,7 +1554,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1588,7 +1566,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -1608,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1625,10 +1603,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1642,10 +1620,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1659,10 +1637,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1676,10 +1654,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1693,10 +1671,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1710,10 +1688,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1727,10 +1705,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -1744,10 +1722,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -1758,10 +1736,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1775,10 +1753,10 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1792,10 +1770,10 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1809,10 +1787,10 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -1826,10 +1804,10 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
@@ -1843,10 +1821,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
         <v>47</v>
@@ -1860,10 +1838,10 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -1877,10 +1855,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -1894,10 +1872,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -1909,85 +1887,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1071E-6A8B-4F58-AAB3-90A284CB5C0C}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" customWidth="1"/>
-    <col min="4" max="4" width="157" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>